--- a/Data Exploration and Summary Statistics.xlsx
+++ b/Data Exploration and Summary Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIVED\OneDrive\Desktop\ENTRI ASSIGNMENTS\75 days Challenge\Day-06 15 Oct 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5044DF49-2839-4ECD-BD6F-57D4985F2C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D586EB64-0B65-4607-AD40-F222CCE1BC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="21954" windowHeight="11724" xr2:uid="{77628BD9-DB11-44AE-A9B5-5C5617E5F6D3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Apple</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>highest profit</t>
+  </si>
+  <si>
+    <t>lowest profit</t>
   </si>
 </sst>
 </file>
@@ -181,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -200,16 +206,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -229,7 +236,7 @@
   <autoFilter ref="A2:G7" xr:uid="{DC3512B8-77D8-4566-BCD3-A8BA49F8BA11}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{05C06409-F9D9-497B-AC32-0D1AC926A2E6}" name="Fruits"/>
-    <tableColumn id="2" xr3:uid="{D95E1331-1853-4AC5-AF1B-77568D94C4BF}" name="Quantity in KG" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D95E1331-1853-4AC5-AF1B-77568D94C4BF}" name="Quantity in KG" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{E9E49985-78ED-4F75-B146-861751C1B7F9}" name="Purchase Rate/kg"/>
     <tableColumn id="4" xr3:uid="{178A04ED-2D38-4817-B5EA-293B6DE29C86}" name="Total Purchase Amount">
       <calculatedColumnFormula>B3*C3</calculatedColumnFormula>
@@ -238,7 +245,7 @@
     <tableColumn id="6" xr3:uid="{2EA0E1C9-001B-4F29-B320-4C7B0E38A6CF}" name="Total Selling Price">
       <calculatedColumnFormula>B3*E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C5D4B977-706C-4CE0-9BC3-FE2B0B24EC4D}" name="Profit" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{C5D4B977-706C-4CE0-9BC3-FE2B0B24EC4D}" name="Profit" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Total Selling Price]]-Table1[[#This Row],[Total Purchase Amount]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -543,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8AB8D9-7FAF-406D-9CEF-411754D8F7D5}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -558,10 +565,11 @@
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:7" ht="16.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" ht="16.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -584,7 +592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -609,8 +617,11 @@
         <f>Table1[[#This Row],[Total Selling Price]]-Table1[[#This Row],[Total Purchase Amount]]</f>
         <v>3241.75</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -636,7 +647,7 @@
         <v>1011.25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -661,8 +672,11 @@
         <f>Table1[[#This Row],[Total Selling Price]]-Table1[[#This Row],[Total Purchase Amount]]</f>
         <v>631.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -688,7 +702,7 @@
         <v>982.75</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -714,35 +728,50 @@
         <v>1241.75</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="6">
+        <f>SUM(Table1[Total Selling Price])</f>
+        <v>22167.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="6">
+        <f>AVERAGE(Table1[Total Selling Price])</f>
+        <v>4433.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="6">
+        <f>MAX(Table1[Profit])</f>
+        <v>3241.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="6">
+        <f>MIN(Table1[Profit])</f>
+        <v>631.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6">
+        <f>_xlfn.STDEV.S(Table1[Profit])</f>
+        <v>1040.5433076042534</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
